--- a/murdegan/scripts.xlsx
+++ b/murdegan/scripts.xlsx
@@ -40,7 +40,7 @@
     <t>Liberty Bay Rotworms</t>
   </si>
   <si>
-    <t>Liberty Bay Rotworms/Knight/setup.json</t>
+    <t>Liberty_Bay_Rotworms/Knight/setup.json</t>
   </si>
   <si>
     <t>30k/h</t>
@@ -52,13 +52,13 @@
     <t>12+</t>
   </si>
   <si>
-    <t>Liberty Bay Rotworms/Mage/setup.json</t>
+    <t>Liberty_Bay_Rotworms/Mage/setup.json</t>
   </si>
   <si>
     <t>Paladin</t>
   </si>
   <si>
-    <t>Liberty Bay Rotworms/Paladin/setup.json</t>
+    <t>Liberty_Bay_Rotworms/Paladin/setup.json</t>
   </si>
   <si>
     <t>100+</t>
@@ -67,7 +67,7 @@
     <t>Yalahar Giant Spider</t>
   </si>
   <si>
-    <t>Yalahar Giant Spider/setup_EK.json</t>
+    <t>Yalahar_Giant_Spider/setup_EK.json</t>
   </si>
   <si>
     <t>15k/h</t>
@@ -82,7 +82,7 @@
     <t>Nargor Crystal Garden</t>
   </si>
   <si>
-    <t>Nargor Crystal Garden/setup_EK.json</t>
+    <t>Nargor_Crystal_Garden/setup_EK.json</t>
   </si>
   <si>
     <t>0-15k/h</t>
@@ -97,7 +97,7 @@
     <t>Yalahar Mistrock North</t>
   </si>
   <si>
-    <t>Yalahar Mistrock North/setup_EK.json</t>
+    <t>Yalahar_Mistrock_North/setup_EK.json</t>
   </si>
   <si>
     <t>3-5k/h</t>
@@ -106,7 +106,7 @@
     <t>50k/h</t>
   </si>
   <si>
-    <t>Yalahar Mistrock North/setup_RP.json</t>
+    <t>Yalahar_Mistrock_North/setup_RP.json</t>
   </si>
   <si>
     <t>50+</t>
@@ -115,13 +115,13 @@
     <t>Yalahar Mistrock West</t>
   </si>
   <si>
-    <t>Yalahar Mistrock West/setup_EK.json</t>
+    <t>Yalahar_Mistrock_West/setup_EK.json</t>
   </si>
   <si>
     <t>65k/h</t>
   </si>
   <si>
-    <t>Yalahar Mistrock West/setup_RP.json</t>
+    <t>Yalahar_Mistrock_West/setup_RP.json</t>
   </si>
   <si>
     <t>8+</t>
@@ -130,7 +130,7 @@
     <t>Thais Wasp</t>
   </si>
   <si>
-    <t>Thais Wasp/setup.json</t>
+    <t>Thais_Wasp/setup.json</t>
   </si>
   <si>
     <t>10k/h</t>
@@ -139,13 +139,13 @@
     <t>Yalahar Vengoth Werewolf</t>
   </si>
   <si>
-    <t>Yalahar Vengoth Werewolf/With Access/setup_EK.json</t>
+    <t>Yalahar_Vengoth_Werewolf/With_Access/setup_EK.json</t>
   </si>
   <si>
     <t>10-30k</t>
   </si>
   <si>
-    <t>Yalahar Vengoth Werewolf/Without Access/setup_EK.json</t>
+    <t>Yalahar_Vengoth_Werewolf/Without_Access/setup_EK.json</t>
   </si>
   <si>
     <t>35+</t>
@@ -154,7 +154,7 @@
     <t>Edron lvl 35 Forgotten Tomb</t>
   </si>
   <si>
-    <t>Edron lvl 35 Forgotten Tomb/setup.json</t>
+    <t>Edron_lvl_35_Forgotten_Tomb/setup.json</t>
   </si>
   <si>
     <t>5-10k</t>
@@ -166,7 +166,7 @@
     <t>Edron lvl 50 Forgotten Tomb</t>
   </si>
   <si>
-    <t>Edron lvl 50 Forgotten Tomb/setup.json</t>
+    <t>Edron_lvl_50_Forgotten_Tomb/setup.json</t>
   </si>
   <si>
     <t>120k/h</t>
@@ -184,10 +184,10 @@
     <t>Yalahar Sunken</t>
   </si>
   <si>
-    <t>Yalahar Sunken/setup_EK.json</t>
-  </si>
-  <si>
-    <t>no tested</t>
+    <t>Yalahar_Sunken/setup_EK.json</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -514,7 +514,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2">
@@ -535,7 +535,7 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4">
@@ -555,7 +555,7 @@
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -575,7 +575,7 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -595,7 +595,7 @@
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -615,7 +615,7 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -635,7 +635,7 @@
       <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -655,7 +655,7 @@
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -675,7 +675,7 @@
       <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -695,7 +695,7 @@
       <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -795,13 +795,13 @@
       <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>58</v>
       </c>
     </row>

--- a/murdegan/scripts.xlsx
+++ b/murdegan/scripts.xlsx
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -204,10 +204,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -233,13 +229,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -487,13 +477,13 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -508,13 +498,13 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2">
@@ -526,19 +516,19 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.0</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -546,262 +536,262 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
